--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956217.12812091</v>
+        <v>2031746.797785713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>165.1686950481734</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>5.8565834949491</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.557008652678662</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>60.56178562745414</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>164.7728753913826</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>17.65675159345384</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>196.6067647623553</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.58354151325328</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>219.3249637174652</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>142.3003011482962</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>66.36466614595577</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>22.62632676293207</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.0867347140856</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8.737424240092139</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W28" t="n">
-        <v>209.4552226741778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.5906791667245</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.35146980186034</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>42.20840157554994</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.30197918502491</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>267.7066516484237</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.9093185292908</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>155.8385935972257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.069036214947</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>701.4407434944976</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2636.204660644727</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2417.569993616789</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2163.808208254881</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2163.808208254881</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2163.808208254881</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2163.808208254881</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1773.668876279069</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>489.3918856584278</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>489.3918856584278</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>489.3918856584278</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>489.3918856584278</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>489.3918856584278</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2530.711843148139</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.077176120202</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.077176120202</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.014288776631</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.245633506517</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.779875245437</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.6405432696254</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>351.9727148150933</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V7" t="n">
-        <v>351.9727148150933</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2334.776746062713</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2334.776746062713</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>557.4050153476338</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5053,40 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5194,25 +5196,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,25 +5223,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
         <v>1322.84934122136</v>
@@ -5276,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5364,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5373,7 +5375,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5464,22 +5466,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5610,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.0822064765186</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>786.0822064765186</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>635.9655670641829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>488.0524734817898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>341.1625259838794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>786.0822064765186</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>786.0822064765186</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.9315552689001</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>367.9953723409932</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>367.9953723409932</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>367.9953723409932</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>367.9953723409932</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124302</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689001</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.689320534781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W28" t="n">
-        <v>208.7516828383384</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383384</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X31" t="n">
-        <v>1275.130855347408</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.130855347408</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054475</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843982</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.24660305754</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851653</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814692</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.74515569858</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7102,13 +7104,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1474.368816835655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1474.368816835655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1474.368816835655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1185.240178049213</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.240178049213</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>895.8230080122524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8334571142351</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,28 +7192,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557898</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557898</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352011</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>973.8210231111786</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>745.8314722131613</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7391,49 +7393,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.599783924192</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688034</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347404</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347404</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141517</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>731.0291971045569</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>503.0396462065396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.0396462065396</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7643,52 +7645,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557898</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557898</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298206</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>195.9583265891627</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>35.40683374929196</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>157.7561442232854</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.77080983974793</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W28" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.24130101521277</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871768</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>244.3145967610411</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>85.6623732187679</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.8163466881673</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.92266165264652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>96.29904972660233</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538232</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.8073538227</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26332,28 +26334,28 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590218</v>
-      </c>
       <c r="M2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26436,10 +26438,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173922</v>
+        <v>-295924.7651173925</v>
       </c>
       <c r="C6" t="n">
         <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971525</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880299</v>
+        <v>-123855.2543880301</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="G6" t="n">
         <v>401304.7820888659</v>
@@ -26540,28 +26542,28 @@
         <v>401304.7820888659</v>
       </c>
       <c r="I6" t="n">
+        <v>401304.7820888659</v>
+      </c>
+      <c r="J6" t="n">
+        <v>224881.5628962727</v>
+      </c>
+      <c r="K6" t="n">
         <v>401304.782088866</v>
       </c>
-      <c r="J6" t="n">
-        <v>224881.5628962728</v>
-      </c>
-      <c r="K6" t="n">
-        <v>401304.7820888662</v>
-      </c>
       <c r="L6" t="n">
-        <v>401304.7820888661</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550289</v>
+        <v>266503.7668550288</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888661</v>
+        <v>401304.782088866</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.7820888661</v>
+        <v>401304.782088866</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.7820888661</v>
+        <v>401304.7820888658</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>248.6154749726216</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168.5591293140224</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>130.4086131396596</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>164.4733198306301</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.642837417588964</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>352.0743490850152</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>15.53877418766362</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6983327287244</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>145.9479280535423</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>108.9238663599931</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>6.771212764859769</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>220.1583321906352</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006117962</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556174</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515205983</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031746.797785713</v>
+        <v>2024729.782894003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1686950481734</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>241.2714004773674</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.557008652678662</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>66.2097786110288</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.65675159345384</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.58354151325328</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>219.3249637174652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>166.0101341835853</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250814</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229324</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>66.36466614595577</v>
+        <v>269.0275088281778</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>9.992125645415702e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002074</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.62632676293207</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>256.111763886877</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.1077313359463</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750044</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>143.2925104849803</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365859</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>42.20840157554994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>80.72752397360169</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.426648284105</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.426648284105</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.426648284105</v>
+        <v>1261.81500460521</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.426648284105</v>
+        <v>876.0267520069656</v>
       </c>
       <c r="F2" t="n">
-        <v>701.4407434944976</v>
+        <v>465.040847217358</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>451.1174431559489</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>527.4787034827857</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>141.6904508845415</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>134.744950135338</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>120.8215460739289</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358873</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>478.8522906713812</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.8663858817736</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733134</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224086</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615932</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598698</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="W10" t="n">
-        <v>371.9203575519559</v>
+        <v>456.3840257941343</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>456.3840257941343</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074200913</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074200913</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.055751909234</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5612,7 +5612,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.217519157017</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>985.5330309511296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>696.115860914169</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.03077229167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>434.3285960683722</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1354.176360977115</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1354.176360977115</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>1354.176360977115</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>1354.176360977115</v>
       </c>
       <c r="W31" t="n">
-        <v>3492.843747251887</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916675</v>
+        <v>836.7696400421421</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>377.6878657662453</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.107328986838</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y37" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,7 +7639,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,25 +7824,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050799</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714801</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.90698584636175</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.9583265891627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>30.12558851170036</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>52.77080983974793</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>192.8130786476569</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>54.62829949862294</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>244.3145967610411</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465641</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>14.4554881988891</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>144.9821314154354</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538226</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590214</v>
@@ -26346,16 +26346,16 @@
         <v>508337.7776590215</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.882203026885691e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768952</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26435,31 +26435,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173925</v>
+        <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971523</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971523</v>
+        <v>294043.1140971517</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880301</v>
+        <v>-124829.8456477508</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.190829144</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291437</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962727</v>
+        <v>223906.9716365512</v>
       </c>
       <c r="K6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="L6" t="n">
-        <v>401304.7820888658</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550288</v>
+        <v>265529.1755953071</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.7820888658</v>
+        <v>400330.1908291442</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170872</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,13 +26816,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370128</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990165</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990165</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>248.6154749726216</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82.65137228698978</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4086131396596</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>257.7129941533283</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>352.0743490850152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6983327287244</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>145.9479280535423</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481157</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>8.405578625386141</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853693</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491422</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>220.1583321906352</v>
+        <v>17.49548950841324</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-7.709020622584651e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554475</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.371903895467</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.988205504414</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633811</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727388</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473563</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141122</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188926</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890693</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396487</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034989</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131475</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061916</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078621</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644451</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492008</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813584</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302251</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175858</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383812</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678017</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701168</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315616</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116801</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898692</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770702</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730067</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262941</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713965</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458882</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557983</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873161</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349808</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109101</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024729.782894003</v>
+        <v>2029669.045743035</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>253.9620394059549</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>241.2714004773674</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.5196897930038</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>333.845147036467</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>66.2097786110288</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>166.0101341835853</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>191.5087225412292</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095446</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.0275088281778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>9.992125645415702e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.5269768002074</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>104.5905865511309</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>238.2336684417116</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>52.60263735194604</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.36761062499805</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.1077313359463</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>167.7998565704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750044</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>24.01153903325445</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>143.2925104849803</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>114.187260781903</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4653217847141</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>93.02703711889707</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>80.72752397360169</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4312,16 +4312,16 @@
         <v>1620.08070321196</v>
       </c>
       <c r="D2" t="n">
-        <v>1261.81500460521</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="E2" t="n">
-        <v>876.0267520069656</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>465.040847217358</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>451.1174431559489</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.7444020895362</v>
+        <v>885.7444020895366</v>
       </c>
       <c r="C5" t="n">
-        <v>885.7444020895362</v>
+        <v>885.7444020895366</v>
       </c>
       <c r="D5" t="n">
-        <v>527.4787034827857</v>
+        <v>885.7444020895366</v>
       </c>
       <c r="E5" t="n">
-        <v>141.6904508845415</v>
+        <v>885.7444020895366</v>
       </c>
       <c r="F5" t="n">
-        <v>134.744950135338</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>120.8215460739289</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,10 +4597,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
         <v>1662.48357412947</v>
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713812</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.8663858817736</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036449</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733134</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224086</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2529.462086792381</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2529.462086792381</v>
+        <v>2503.705936936173</v>
       </c>
       <c r="U8" t="n">
-        <v>2275.700301430472</v>
+        <v>2249.944151574265</v>
       </c>
       <c r="V8" t="n">
-        <v>1944.637414086902</v>
+        <v>1918.881264230694</v>
       </c>
       <c r="W8" t="n">
-        <v>1591.868758816787</v>
+        <v>1566.11260896058</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1192.6468506995</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615932</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598698</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036449</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036449</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036449</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036449</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036449</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036449</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036449</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036449</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477913</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658214</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502506</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594909</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064351</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064351</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201014</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074200913</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074200913</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>1104.140574649106</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201014</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201014</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089419</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.27620142486</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1003.591713218973</v>
+        <v>1022.076868139783</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="17">
@@ -5500,19 +5500,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5524,7 +5524,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>678.2851114370362</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>528.1684720247005</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>380.2553784423073</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>233.365430944397</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>847.2212943649431</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5968,34 +5968,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1269.971530765645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>980.8428919792032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>726.1584037733163</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363557</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6220,34 +6220,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683722</v>
+        <v>121.471171291856</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404653</v>
+        <v>121.471171291856</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404653</v>
+        <v>121.471171291856</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404653</v>
+        <v>121.471171291856</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404653</v>
+        <v>121.471171291856</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1354.176360977115</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1354.176360977115</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1354.176360977115</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1354.176360977115</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>1064.759190940159</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>836.7696400421421</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.977060898612</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>380.733080596933</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.597763704656</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1089.812348494162</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7244,34 +7244,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>1181.164151186906</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>926.4796629810191</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>731.31772835508</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>649.7747748463914</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,25 +7824,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050799</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714801</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>127.6461250100655</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.90698584636175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>147.5470567726971</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.00368395686573</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>199.535005971882</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>142.1259578383795</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.8130786476569</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.90979881859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.51827062200606</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.3938331833848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>142.4820294301231</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>54.62829949862294</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>34.42821223630932</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465641</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>14.4554881988891</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>193.2103152796803</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>144.9821314154354</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538226</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117845</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.882203026885691e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768952</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26435,31 +26435,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173921</v>
+        <v>-295924.7651173923</v>
       </c>
       <c r="C6" t="n">
+        <v>294043.1140971527</v>
+      </c>
+      <c r="D6" t="n">
         <v>294043.1140971524</v>
       </c>
-      <c r="D6" t="n">
-        <v>294043.1140971517</v>
-      </c>
       <c r="E6" t="n">
-        <v>-124829.8456477508</v>
+        <v>-123952.7135140022</v>
       </c>
       <c r="F6" t="n">
-        <v>400330.190829144</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="G6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="H6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="I6" t="n">
-        <v>400330.1908291437</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="J6" t="n">
-        <v>223906.9716365512</v>
+        <v>224784.1037703006</v>
       </c>
       <c r="K6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="L6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="M6" t="n">
-        <v>265529.1755953071</v>
+        <v>266406.3077290566</v>
       </c>
       <c r="N6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="O6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="P6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170872</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,13 +26816,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370128</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990165</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990165</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>127.9683306663069</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>82.65137228698978</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>11.62584915701513</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>73.03089870524445</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>257.7129941533283</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481157</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>8.405578625386141</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>24.93959781642863</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853693</v>
+        <v>14.59587156758252</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>17.49548950841324</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.709020622584651e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.463989355239118e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554475</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633811</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473563</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141122</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188926</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890693</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396487</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736703</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034989</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061916</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078621</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644451</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813584</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302251</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175858</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383812</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701168</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770702</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730067</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713965</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873161</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,13 +35737,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109101</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>334.7395399415902</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
